--- a/static/resources/2-export_to_excel.xlsx
+++ b/static/resources/2-export_to_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Дата</t>
   </si>
@@ -23,22 +23,10 @@
     <t>Доход(в руб.)</t>
   </si>
   <si>
-    <t>13.02.2022</t>
-  </si>
-  <si>
     <t>Категория</t>
   </si>
   <si>
     <t>Расход(в руб.)</t>
-  </si>
-  <si>
-    <t>12.02.2022</t>
-  </si>
-  <si>
-    <t>Переводы</t>
-  </si>
-  <si>
-    <t>Рестораны</t>
   </si>
 </sst>
 </file>
@@ -396,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,22 +398,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1234</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -433,7 +405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -444,32 +416,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1234</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
